--- a/source/sentence-codetection/generation-avg-similarity-matrix-new20150630.xlsx
+++ b/source/sentence-codetection/generation-avg-similarity-matrix-new20150630.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
   <si>
     <t>labeled</t>
   </si>
@@ -38,6 +38,21 @@
   </si>
   <si>
     <t>plan4</t>
+  </si>
+  <si>
+    <t>plan5</t>
+  </si>
+  <si>
+    <t>plan6</t>
+  </si>
+  <si>
+    <t>plan7</t>
+  </si>
+  <si>
+    <t>plan8</t>
+  </si>
+  <si>
+    <t>plan9</t>
   </si>
   <si>
     <t>chair</t>
@@ -65,72 +80,6 @@
   </si>
   <si>
     <t>chair?</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>ab</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
-    <t>ae</t>
-  </si>
-  <si>
-    <t>af</t>
-  </si>
-  <si>
-    <t>ag</t>
-  </si>
-  <si>
-    <t>ah</t>
-  </si>
-  <si>
-    <t>ai</t>
-  </si>
-  <si>
-    <t>aj</t>
-  </si>
-  <si>
-    <t>ak</t>
-  </si>
-  <si>
-    <t>al</t>
-  </si>
-  <si>
-    <t>am</t>
-  </si>
-  <si>
-    <t>an</t>
-  </si>
-  <si>
-    <t>ao</t>
-  </si>
-  <si>
-    <t>ap</t>
-  </si>
-  <si>
-    <t>aq</t>
-  </si>
-  <si>
-    <t>ar</t>
-  </si>
-  <si>
-    <t>as</t>
   </si>
   <si>
     <t>object</t>
@@ -190,7 +139,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +156,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
         <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FFFF"/>
+        <bgColor rgb="0000FFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -281,7 +242,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="27">
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -308,6 +269,10 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="164"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="4" numFmtId="164"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="164"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="4" numFmtId="164"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
@@ -344,14 +309,14 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="5" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="5" fillId="4" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="5" fillId="6" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="166" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="4" fontId="0" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="4" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="6" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="6" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0">
@@ -364,7 +329,7 @@
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
     <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
     <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
@@ -374,6 +339,10 @@
     <cellStyle builtinId="54" customBuiltin="true" name="Untitled1" xfId="20"/>
     <cellStyle builtinId="54" customBuiltin="true" name="Untitled2" xfId="21"/>
     <cellStyle builtinId="54" customBuiltin="true" name="Untitled3" xfId="22"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Untitled4" xfId="23"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Untitled5" xfId="24"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Untitled6" xfId="25"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Untitled7" xfId="26"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -445,12 +414,12 @@
   </sheetPr>
   <dimension ref="A1:AV59"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A26" activeCellId="0" pane="topLeft" sqref="A1:Z26"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100">
+      <selection activeCell="F55" activeCellId="0" pane="topLeft" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.50196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.87450980392157"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.0745098039216"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="7.10980392156863"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="9.09803921568627"/>
@@ -463,7 +432,17 @@
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="8.21960784313725"/>
     <col collapsed="false" hidden="false" max="23" min="20" style="1" width="7.10980392156863"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="9.09803921568627"/>
-    <col collapsed="false" hidden="false" max="48" min="25" style="1" width="7.10980392156863"/>
+    <col collapsed="false" hidden="false" max="28" min="25" style="1" width="7.10980392156863"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="9.09803921568627"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="1" width="7.10980392156863"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="9.69411764705882"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="1" width="7.10980392156863"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.87450980392157"/>
+    <col collapsed="false" hidden="false" max="42" min="39" style="1" width="7.10980392156863"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="9.11764705882353"/>
+    <col collapsed="false" hidden="false" max="46" min="44" style="1" width="7.10980392156863"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="1" width="9.11764705882353"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="1" width="7.10980392156863"/>
     <col collapsed="false" hidden="false" max="1025" min="49" style="1" width="11.5764705882353"/>
   </cols>
   <sheetData>
@@ -494,6 +473,28 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
       <c r="Z1" s="6"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="6"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2" s="2">
       <c r="A2" s="7"/>
@@ -575,7 +576,7 @@
       <c r="AD2" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AE2" s="8" t="n">
+      <c r="AE2" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="8" t="n">
@@ -587,7 +588,7 @@
       <c r="AH2" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AI2" s="8" t="n">
+      <c r="AI2" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" s="8" t="n">
@@ -602,7 +603,7 @@
       <c r="AM2" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="AN2" s="8" t="n">
+      <c r="AN2" s="9" t="n">
         <v>5</v>
       </c>
       <c r="AO2" s="8" t="n">
@@ -614,7 +615,7 @@
       <c r="AQ2" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="AR2" s="8" t="n">
+      <c r="AR2" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AS2" s="8" t="n">
@@ -626,7 +627,7 @@
       <c r="AU2" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="AV2" s="8" t="n">
+      <c r="AV2" s="9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -710,7 +711,7 @@
       <c r="AD3" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="AE3" s="8" t="n">
+      <c r="AE3" s="9" t="n">
         <v>26</v>
       </c>
       <c r="AF3" s="8" t="n">
@@ -722,7 +723,7 @@
       <c r="AH3" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="AI3" s="8" t="n">
+      <c r="AI3" s="9" t="n">
         <v>30</v>
       </c>
       <c r="AJ3" s="8" t="n">
@@ -737,7 +738,7 @@
       <c r="AM3" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="AN3" s="8" t="n">
+      <c r="AN3" s="9" t="n">
         <v>35</v>
       </c>
       <c r="AO3" s="8" t="n">
@@ -749,7 +750,7 @@
       <c r="AQ3" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="AR3" s="8" t="n">
+      <c r="AR3" s="9" t="n">
         <v>39</v>
       </c>
       <c r="AS3" s="8" t="n">
@@ -761,7 +762,7 @@
       <c r="AU3" s="8" t="n">
         <v>42</v>
       </c>
-      <c r="AV3" s="8" t="n">
+      <c r="AV3" s="9" t="n">
         <v>43</v>
       </c>
     </row>
@@ -801,8 +802,40 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
+      <c r="AA4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="14"/>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -812,136 +845,136 @@
       </c>
       <c r="D5" s="8"/>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="U5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="Z5" s="15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="AI5" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="AN5" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
+      </c>
+      <c r="AR5" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="AV5" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="14"/>
       <c r="B6" s="8" t="n">
         <v>1</v>
@@ -1031,7 +1064,7 @@
       <c r="AD6" s="1" t="n">
         <v>0.2727288</v>
       </c>
-      <c r="AE6" s="1" t="n">
+      <c r="AE6" s="17" t="n">
         <v>0.2667227</v>
       </c>
       <c r="AF6" s="1" t="n">
@@ -1043,7 +1076,7 @@
       <c r="AH6" s="1" t="n">
         <v>0.2989761</v>
       </c>
-      <c r="AI6" s="1" t="n">
+      <c r="AI6" s="17" t="n">
         <v>0.2761997</v>
       </c>
       <c r="AJ6" s="1" t="n">
@@ -1058,7 +1091,7 @@
       <c r="AM6" s="1" t="n">
         <v>0.3650365</v>
       </c>
-      <c r="AN6" s="1" t="n">
+      <c r="AN6" s="17" t="n">
         <v>0.2587016</v>
       </c>
       <c r="AO6" s="1" t="n">
@@ -1070,7 +1103,7 @@
       <c r="AQ6" s="1" t="n">
         <v>0.2793885</v>
       </c>
-      <c r="AR6" s="1" t="n">
+      <c r="AR6" s="17" t="n">
         <v>0.3251481</v>
       </c>
       <c r="AS6" s="1" t="n">
@@ -1082,11 +1115,11 @@
       <c r="AU6" s="1" t="n">
         <v>0.2505794</v>
       </c>
-      <c r="AV6" s="1" t="n">
+      <c r="AV6" s="17" t="n">
         <v>0.2931362</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="14"/>
       <c r="B7" s="8" t="n">
         <v>2</v>
@@ -1174,7 +1207,7 @@
       <c r="AD7" s="18" t="n">
         <v>0.2547605</v>
       </c>
-      <c r="AE7" s="18" t="n">
+      <c r="AE7" s="19" t="n">
         <v>0.2458814</v>
       </c>
       <c r="AF7" s="18" t="n">
@@ -1186,7 +1219,7 @@
       <c r="AH7" s="18" t="n">
         <v>0.3350813</v>
       </c>
-      <c r="AI7" s="18" t="n">
+      <c r="AI7" s="19" t="n">
         <v>0.2742074</v>
       </c>
       <c r="AJ7" s="18" t="n">
@@ -1201,7 +1234,7 @@
       <c r="AM7" s="18" t="n">
         <v>0.275588</v>
       </c>
-      <c r="AN7" s="18" t="n">
+      <c r="AN7" s="19" t="n">
         <v>0.2922037</v>
       </c>
       <c r="AO7" s="18" t="n">
@@ -1213,7 +1246,7 @@
       <c r="AQ7" s="18" t="n">
         <v>0.353568</v>
       </c>
-      <c r="AR7" s="18" t="n">
+      <c r="AR7" s="19" t="n">
         <v>0.2347076</v>
       </c>
       <c r="AS7" s="18" t="n">
@@ -1225,11 +1258,11 @@
       <c r="AU7" s="18" t="n">
         <v>0.2939534</v>
       </c>
-      <c r="AV7" s="18" t="n">
+      <c r="AV7" s="19" t="n">
         <v>0.337246</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="14"/>
       <c r="B8" s="8" t="n">
         <v>3</v>
@@ -1317,7 +1350,7 @@
       <c r="AD8" s="1" t="n">
         <v>0.4719551</v>
       </c>
-      <c r="AE8" s="1" t="n">
+      <c r="AE8" s="17" t="n">
         <v>0.2762878</v>
       </c>
       <c r="AF8" s="1" t="n">
@@ -1329,7 +1362,7 @@
       <c r="AH8" s="1" t="n">
         <v>0.527981</v>
       </c>
-      <c r="AI8" s="1" t="n">
+      <c r="AI8" s="17" t="n">
         <v>0.2421022</v>
       </c>
       <c r="AJ8" s="1" t="n">
@@ -1344,7 +1377,7 @@
       <c r="AM8" s="1" t="n">
         <v>0.2359938</v>
       </c>
-      <c r="AN8" s="1" t="n">
+      <c r="AN8" s="17" t="n">
         <v>0.2256438</v>
       </c>
       <c r="AO8" s="1" t="n">
@@ -1356,7 +1389,7 @@
       <c r="AQ8" s="1" t="n">
         <v>0.212391</v>
       </c>
-      <c r="AR8" s="1" t="n">
+      <c r="AR8" s="17" t="n">
         <v>0.2078028</v>
       </c>
       <c r="AS8" s="1" t="n">
@@ -1368,11 +1401,11 @@
       <c r="AU8" s="1" t="n">
         <v>0.3075239</v>
       </c>
-      <c r="AV8" s="1" t="n">
+      <c r="AV8" s="17" t="n">
         <v>0.2351073</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="n">
         <v>4</v>
@@ -1460,7 +1493,7 @@
       <c r="AD9" s="18" t="n">
         <v>0.2031777</v>
       </c>
-      <c r="AE9" s="18" t="n">
+      <c r="AE9" s="19" t="n">
         <v>0.3997945</v>
       </c>
       <c r="AF9" s="18" t="n">
@@ -1472,7 +1505,7 @@
       <c r="AH9" s="18" t="n">
         <v>0.2055185</v>
       </c>
-      <c r="AI9" s="18" t="n">
+      <c r="AI9" s="19" t="n">
         <v>0.3783531</v>
       </c>
       <c r="AJ9" s="18" t="n">
@@ -1487,7 +1520,7 @@
       <c r="AM9" s="18" t="n">
         <v>0.2102025</v>
       </c>
-      <c r="AN9" s="18" t="n">
+      <c r="AN9" s="19" t="n">
         <v>0.1990378</v>
       </c>
       <c r="AO9" s="18" t="n">
@@ -1499,7 +1532,7 @@
       <c r="AQ9" s="18" t="n">
         <v>0.1917553</v>
       </c>
-      <c r="AR9" s="18" t="n">
+      <c r="AR9" s="19" t="n">
         <v>0.1759447</v>
       </c>
       <c r="AS9" s="18" t="n">
@@ -1511,11 +1544,11 @@
       <c r="AU9" s="18" t="n">
         <v>0.162286</v>
       </c>
-      <c r="AV9" s="18" t="n">
+      <c r="AV9" s="19" t="n">
         <v>0.2603292</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="14"/>
       <c r="B10" s="8" t="n">
         <v>3</v>
@@ -1605,7 +1638,7 @@
       <c r="AD10" s="1" t="n">
         <v>0.3259375</v>
       </c>
-      <c r="AE10" s="1" t="n">
+      <c r="AE10" s="17" t="n">
         <v>0.2826074</v>
       </c>
       <c r="AF10" s="1" t="n">
@@ -1617,7 +1650,7 @@
       <c r="AH10" s="1" t="n">
         <v>0.3864821</v>
       </c>
-      <c r="AI10" s="1" t="n">
+      <c r="AI10" s="17" t="n">
         <v>0.3295014</v>
       </c>
       <c r="AJ10" s="1" t="n">
@@ -1632,7 +1665,7 @@
       <c r="AM10" s="1" t="n">
         <v>0.2886694</v>
       </c>
-      <c r="AN10" s="1" t="n">
+      <c r="AN10" s="17" t="n">
         <v>0.3023367</v>
       </c>
       <c r="AO10" s="1" t="n">
@@ -1644,7 +1677,7 @@
       <c r="AQ10" s="1" t="n">
         <v>0.3453897</v>
       </c>
-      <c r="AR10" s="1" t="n">
+      <c r="AR10" s="17" t="n">
         <v>0.2921226</v>
       </c>
       <c r="AS10" s="1" t="n">
@@ -1656,11 +1689,11 @@
       <c r="AU10" s="1" t="n">
         <v>0.2928116</v>
       </c>
-      <c r="AV10" s="1" t="n">
+      <c r="AV10" s="17" t="n">
         <v>0.354353</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="14"/>
       <c r="B11" s="8" t="n">
         <v>5</v>
@@ -1748,7 +1781,7 @@
       <c r="AD11" s="18" t="n">
         <v>0.1965507</v>
       </c>
-      <c r="AE11" s="18" t="n">
+      <c r="AE11" s="19" t="n">
         <v>0.1905351</v>
       </c>
       <c r="AF11" s="18" t="n">
@@ -1760,7 +1793,7 @@
       <c r="AH11" s="18" t="n">
         <v>0.2792835</v>
       </c>
-      <c r="AI11" s="18" t="n">
+      <c r="AI11" s="19" t="n">
         <v>0.2160763</v>
       </c>
       <c r="AJ11" s="18" t="n">
@@ -1775,7 +1808,7 @@
       <c r="AM11" s="18" t="n">
         <v>0.2286882</v>
       </c>
-      <c r="AN11" s="18" t="n">
+      <c r="AN11" s="19" t="n">
         <v>0.33724</v>
       </c>
       <c r="AO11" s="18" t="n">
@@ -1787,7 +1820,7 @@
       <c r="AQ11" s="18" t="n">
         <v>0.1997791</v>
       </c>
-      <c r="AR11" s="18" t="n">
+      <c r="AR11" s="19" t="n">
         <v>0.2074592</v>
       </c>
       <c r="AS11" s="18" t="n">
@@ -1799,11 +1832,11 @@
       <c r="AU11" s="18" t="n">
         <v>0.1878459</v>
       </c>
-      <c r="AV11" s="18" t="n">
+      <c r="AV11" s="19" t="n">
         <v>0.413432</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="14"/>
       <c r="B12" s="8" t="n">
         <v>6</v>
@@ -1891,7 +1924,7 @@
       <c r="AD12" s="1" t="n">
         <v>0.1609664</v>
       </c>
-      <c r="AE12" s="1" t="n">
+      <c r="AE12" s="17" t="n">
         <v>0.1776704</v>
       </c>
       <c r="AF12" s="1" t="n">
@@ -1903,7 +1936,7 @@
       <c r="AH12" s="1" t="n">
         <v>0.1791781</v>
       </c>
-      <c r="AI12" s="1" t="n">
+      <c r="AI12" s="17" t="n">
         <v>0.1822592</v>
       </c>
       <c r="AJ12" s="1" t="n">
@@ -1918,7 +1951,7 @@
       <c r="AM12" s="1" t="n">
         <v>0.1947571</v>
       </c>
-      <c r="AN12" s="1" t="n">
+      <c r="AN12" s="17" t="n">
         <v>0.217705</v>
       </c>
       <c r="AO12" s="1" t="n">
@@ -1930,7 +1963,7 @@
       <c r="AQ12" s="1" t="n">
         <v>0.1813752</v>
       </c>
-      <c r="AR12" s="1" t="n">
+      <c r="AR12" s="17" t="n">
         <v>0.1957303</v>
       </c>
       <c r="AS12" s="1" t="n">
@@ -1942,11 +1975,11 @@
       <c r="AU12" s="1" t="n">
         <v>0.134232</v>
       </c>
-      <c r="AV12" s="1" t="n">
+      <c r="AV12" s="17" t="n">
         <v>0.2450944</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="n">
         <v>4</v>
@@ -2034,7 +2067,7 @@
       <c r="AD13" s="18" t="n">
         <v>0.206288</v>
       </c>
-      <c r="AE13" s="18" t="n">
+      <c r="AE13" s="19" t="n">
         <v>0.5967847</v>
       </c>
       <c r="AF13" s="18" t="n">
@@ -2046,7 +2079,7 @@
       <c r="AH13" s="18" t="n">
         <v>0.2221086</v>
       </c>
-      <c r="AI13" s="18" t="n">
+      <c r="AI13" s="19" t="n">
         <v>0.5270357</v>
       </c>
       <c r="AJ13" s="18" t="n">
@@ -2061,7 +2094,7 @@
       <c r="AM13" s="18" t="n">
         <v>0.1818877</v>
       </c>
-      <c r="AN13" s="18" t="n">
+      <c r="AN13" s="19" t="n">
         <v>0.1710183</v>
       </c>
       <c r="AO13" s="18" t="n">
@@ -2073,7 +2106,7 @@
       <c r="AQ13" s="18" t="n">
         <v>0.1432585</v>
       </c>
-      <c r="AR13" s="18" t="n">
+      <c r="AR13" s="19" t="n">
         <v>0.1218531</v>
       </c>
       <c r="AS13" s="18" t="n">
@@ -2085,11 +2118,11 @@
       <c r="AU13" s="18" t="n">
         <v>0.1269189</v>
       </c>
-      <c r="AV13" s="18" t="n">
+      <c r="AV13" s="19" t="n">
         <v>0.2653893</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="14"/>
       <c r="B14" s="8" t="n">
         <v>6</v>
@@ -2179,7 +2212,7 @@
       <c r="AD14" s="1" t="n">
         <v>0.1513706</v>
       </c>
-      <c r="AE14" s="1" t="n">
+      <c r="AE14" s="17" t="n">
         <v>0.1745259</v>
       </c>
       <c r="AF14" s="1" t="n">
@@ -2191,7 +2224,7 @@
       <c r="AH14" s="1" t="n">
         <v>0.1611477</v>
       </c>
-      <c r="AI14" s="1" t="n">
+      <c r="AI14" s="17" t="n">
         <v>0.1740333</v>
       </c>
       <c r="AJ14" s="1" t="n">
@@ -2206,7 +2239,7 @@
       <c r="AM14" s="1" t="n">
         <v>0.1821126</v>
       </c>
-      <c r="AN14" s="1" t="n">
+      <c r="AN14" s="17" t="n">
         <v>0.2077011</v>
       </c>
       <c r="AO14" s="1" t="n">
@@ -2218,7 +2251,7 @@
       <c r="AQ14" s="1" t="n">
         <v>0.167768</v>
       </c>
-      <c r="AR14" s="1" t="n">
+      <c r="AR14" s="17" t="n">
         <v>0.186464</v>
       </c>
       <c r="AS14" s="1" t="n">
@@ -2230,11 +2263,11 @@
       <c r="AU14" s="1" t="n">
         <v>0.1298311</v>
       </c>
-      <c r="AV14" s="1" t="n">
+      <c r="AV14" s="17" t="n">
         <v>0.2294562</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="20"/>
       <c r="B15" s="21" t="n">
         <v>4</v>
@@ -2322,7 +2355,7 @@
       <c r="AD15" s="18" t="n">
         <v>0.1493005</v>
       </c>
-      <c r="AE15" s="18" t="n">
+      <c r="AE15" s="19" t="n">
         <v>0.7382241</v>
       </c>
       <c r="AF15" s="18" t="n">
@@ -2334,7 +2367,7 @@
       <c r="AH15" s="18" t="n">
         <v>0.2213245</v>
       </c>
-      <c r="AI15" s="18" t="n">
+      <c r="AI15" s="19" t="n">
         <v>0.7342508</v>
       </c>
       <c r="AJ15" s="18" t="n">
@@ -2349,7 +2382,7 @@
       <c r="AM15" s="18" t="n">
         <v>0.1997486</v>
       </c>
-      <c r="AN15" s="18" t="n">
+      <c r="AN15" s="19" t="n">
         <v>0.1988367</v>
       </c>
       <c r="AO15" s="18" t="n">
@@ -2361,7 +2394,7 @@
       <c r="AQ15" s="18" t="n">
         <v>0.1417675</v>
       </c>
-      <c r="AR15" s="18" t="n">
+      <c r="AR15" s="19" t="n">
         <v>0.1238035</v>
       </c>
       <c r="AS15" s="18" t="n">
@@ -2373,11 +2406,11 @@
       <c r="AU15" s="18" t="n">
         <v>0.1143575</v>
       </c>
-      <c r="AV15" s="18" t="n">
+      <c r="AV15" s="19" t="n">
         <v>0.3198587</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="14"/>
       <c r="B16" s="8" t="n">
         <v>3</v>
@@ -2467,7 +2500,7 @@
       <c r="AD16" s="1" t="n">
         <v>0.313561</v>
       </c>
-      <c r="AE16" s="1" t="n">
+      <c r="AE16" s="17" t="n">
         <v>0.2563098</v>
       </c>
       <c r="AF16" s="1" t="n">
@@ -2479,7 +2512,7 @@
       <c r="AH16" s="1" t="n">
         <v>0.4378466</v>
       </c>
-      <c r="AI16" s="1" t="n">
+      <c r="AI16" s="17" t="n">
         <v>0.2725931</v>
       </c>
       <c r="AJ16" s="1" t="n">
@@ -2494,7 +2527,7 @@
       <c r="AM16" s="1" t="n">
         <v>0.2557692</v>
       </c>
-      <c r="AN16" s="1" t="n">
+      <c r="AN16" s="17" t="n">
         <v>0.2925261</v>
       </c>
       <c r="AO16" s="1" t="n">
@@ -2506,7 +2539,7 @@
       <c r="AQ16" s="1" t="n">
         <v>0.2785969</v>
       </c>
-      <c r="AR16" s="1" t="n">
+      <c r="AR16" s="17" t="n">
         <v>0.2448538</v>
       </c>
       <c r="AS16" s="1" t="n">
@@ -2518,11 +2551,11 @@
       <c r="AU16" s="1" t="n">
         <v>0.2663089</v>
       </c>
-      <c r="AV16" s="1" t="n">
+      <c r="AV16" s="17" t="n">
         <v>0.3293031</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="14"/>
       <c r="B17" s="8" t="n">
         <v>7</v>
@@ -2610,7 +2643,7 @@
       <c r="AD17" s="18" t="n">
         <v>0.1607354</v>
       </c>
-      <c r="AE17" s="18" t="n">
+      <c r="AE17" s="19" t="n">
         <v>0.1601441</v>
       </c>
       <c r="AF17" s="18" t="n">
@@ -2622,7 +2655,7 @@
       <c r="AH17" s="18" t="n">
         <v>0.1840131</v>
       </c>
-      <c r="AI17" s="18" t="n">
+      <c r="AI17" s="19" t="n">
         <v>0.1852989</v>
       </c>
       <c r="AJ17" s="18" t="n">
@@ -2637,7 +2670,7 @@
       <c r="AM17" s="18" t="n">
         <v>0.1517353</v>
       </c>
-      <c r="AN17" s="18" t="n">
+      <c r="AN17" s="19" t="n">
         <v>0.1907595</v>
       </c>
       <c r="AO17" s="18" t="n">
@@ -2649,7 +2682,7 @@
       <c r="AQ17" s="18" t="n">
         <v>0.1571639</v>
       </c>
-      <c r="AR17" s="18" t="n">
+      <c r="AR17" s="19" t="n">
         <v>0.1321197</v>
       </c>
       <c r="AS17" s="18" t="n">
@@ -2661,11 +2694,11 @@
       <c r="AU17" s="18" t="n">
         <v>0.190915</v>
       </c>
-      <c r="AV17" s="18" t="n">
+      <c r="AV17" s="19" t="n">
         <v>0.2064503</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="14"/>
       <c r="B18" s="8" t="n">
         <v>8</v>
@@ -2753,7 +2786,7 @@
       <c r="AD18" s="1" t="n">
         <v>0.2245337</v>
       </c>
-      <c r="AE18" s="1" t="n">
+      <c r="AE18" s="17" t="n">
         <v>0.4355128</v>
       </c>
       <c r="AF18" s="1" t="n">
@@ -2765,7 +2798,7 @@
       <c r="AH18" s="1" t="n">
         <v>0.2968168</v>
       </c>
-      <c r="AI18" s="1" t="n">
+      <c r="AI18" s="17" t="n">
         <v>0.3615502</v>
       </c>
       <c r="AJ18" s="1" t="n">
@@ -2780,7 +2813,7 @@
       <c r="AM18" s="1" t="n">
         <v>0.2454539</v>
       </c>
-      <c r="AN18" s="1" t="n">
+      <c r="AN18" s="17" t="n">
         <v>0.2127799</v>
       </c>
       <c r="AO18" s="1" t="n">
@@ -2792,7 +2825,7 @@
       <c r="AQ18" s="1" t="n">
         <v>0.2372746</v>
       </c>
-      <c r="AR18" s="1" t="n">
+      <c r="AR18" s="17" t="n">
         <v>0.1904632</v>
       </c>
       <c r="AS18" s="1" t="n">
@@ -2804,11 +2837,11 @@
       <c r="AU18" s="1" t="n">
         <v>0.2350111</v>
       </c>
-      <c r="AV18" s="1" t="n">
+      <c r="AV18" s="17" t="n">
         <v>0.3265961</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="14"/>
       <c r="B19" s="8" t="n">
         <v>9</v>
@@ -2896,7 +2929,7 @@
       <c r="AD19" s="18" t="n">
         <v>0.2401943</v>
       </c>
-      <c r="AE19" s="18" t="n">
+      <c r="AE19" s="19" t="n">
         <v>0.2411053</v>
       </c>
       <c r="AF19" s="18" t="n">
@@ -2908,7 +2941,7 @@
       <c r="AH19" s="18" t="n">
         <v>0.284546</v>
       </c>
-      <c r="AI19" s="18" t="n">
+      <c r="AI19" s="19" t="n">
         <v>0.2255998</v>
       </c>
       <c r="AJ19" s="18" t="n">
@@ -2923,7 +2956,7 @@
       <c r="AM19" s="18" t="n">
         <v>0.2064504</v>
       </c>
-      <c r="AN19" s="18" t="n">
+      <c r="AN19" s="19" t="n">
         <v>0.2103461</v>
       </c>
       <c r="AO19" s="18" t="n">
@@ -2935,7 +2968,7 @@
       <c r="AQ19" s="18" t="n">
         <v>0.2283998</v>
       </c>
-      <c r="AR19" s="18" t="n">
+      <c r="AR19" s="19" t="n">
         <v>0.1839307</v>
       </c>
       <c r="AS19" s="18" t="n">
@@ -2947,11 +2980,11 @@
       <c r="AU19" s="18" t="n">
         <v>0.2616992</v>
       </c>
-      <c r="AV19" s="18" t="n">
+      <c r="AV19" s="19" t="n">
         <v>0.2710958</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="n">
         <v>1</v>
@@ -3039,7 +3072,7 @@
       <c r="AD20" s="1" t="n">
         <v>0.2583789</v>
       </c>
-      <c r="AE20" s="1" t="n">
+      <c r="AE20" s="17" t="n">
         <v>0.3182849</v>
       </c>
       <c r="AF20" s="1" t="n">
@@ -3051,7 +3084,7 @@
       <c r="AH20" s="1" t="n">
         <v>0.3087915</v>
       </c>
-      <c r="AI20" s="1" t="n">
+      <c r="AI20" s="17" t="n">
         <v>0.2727394</v>
       </c>
       <c r="AJ20" s="1" t="n">
@@ -3066,7 +3099,7 @@
       <c r="AM20" s="1" t="n">
         <v>0.3489565</v>
       </c>
-      <c r="AN20" s="1" t="n">
+      <c r="AN20" s="17" t="n">
         <v>0.2766516</v>
       </c>
       <c r="AO20" s="1" t="n">
@@ -3078,7 +3111,7 @@
       <c r="AQ20" s="1" t="n">
         <v>0.2996233</v>
       </c>
-      <c r="AR20" s="1" t="n">
+      <c r="AR20" s="17" t="n">
         <v>0.2737871</v>
       </c>
       <c r="AS20" s="1" t="n">
@@ -3090,11 +3123,11 @@
       <c r="AU20" s="1" t="n">
         <v>0.2634778</v>
       </c>
-      <c r="AV20" s="1" t="n">
+      <c r="AV20" s="17" t="n">
         <v>0.3078824</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="14"/>
       <c r="B21" s="8" t="n">
         <v>10</v>
@@ -3184,7 +3217,7 @@
       <c r="AD21" s="18" t="n">
         <v>0.2688133</v>
       </c>
-      <c r="AE21" s="18" t="n">
+      <c r="AE21" s="19" t="n">
         <v>0.2085467</v>
       </c>
       <c r="AF21" s="18" t="n">
@@ -3196,7 +3229,7 @@
       <c r="AH21" s="18" t="n">
         <v>0.1787535</v>
       </c>
-      <c r="AI21" s="18" t="n">
+      <c r="AI21" s="19" t="n">
         <v>0.2125163</v>
       </c>
       <c r="AJ21" s="18" t="n">
@@ -3211,7 +3244,7 @@
       <c r="AM21" s="18" t="n">
         <v>0.2036111</v>
       </c>
-      <c r="AN21" s="18" t="n">
+      <c r="AN21" s="19" t="n">
         <v>0.2114855</v>
       </c>
       <c r="AO21" s="18" t="n">
@@ -3223,7 +3256,7 @@
       <c r="AQ21" s="18" t="n">
         <v>0.1621852</v>
       </c>
-      <c r="AR21" s="18" t="n">
+      <c r="AR21" s="19" t="n">
         <v>0.1477715</v>
       </c>
       <c r="AS21" s="18" t="n">
@@ -3235,11 +3268,11 @@
       <c r="AU21" s="18" t="n">
         <v>0.1476699</v>
       </c>
-      <c r="AV21" s="18" t="n">
+      <c r="AV21" s="19" t="n">
         <v>0.2320698</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="14"/>
       <c r="B22" s="8" t="n">
         <v>11</v>
@@ -3327,7 +3360,7 @@
       <c r="AD22" s="1" t="n">
         <v>0.2662236</v>
       </c>
-      <c r="AE22" s="1" t="n">
+      <c r="AE22" s="17" t="n">
         <v>0.284177</v>
       </c>
       <c r="AF22" s="1" t="n">
@@ -3339,7 +3372,7 @@
       <c r="AH22" s="1" t="n">
         <v>0.2439945</v>
       </c>
-      <c r="AI22" s="1" t="n">
+      <c r="AI22" s="17" t="n">
         <v>0.2308866</v>
       </c>
       <c r="AJ22" s="1" t="n">
@@ -3354,7 +3387,7 @@
       <c r="AM22" s="1" t="n">
         <v>0.2451784</v>
       </c>
-      <c r="AN22" s="1" t="n">
+      <c r="AN22" s="17" t="n">
         <v>0.2552359</v>
       </c>
       <c r="AO22" s="1" t="n">
@@ -3366,7 +3399,7 @@
       <c r="AQ22" s="1" t="n">
         <v>0.2278354</v>
       </c>
-      <c r="AR22" s="1" t="n">
+      <c r="AR22" s="17" t="n">
         <v>0.2564434</v>
       </c>
       <c r="AS22" s="1" t="n">
@@ -3378,11 +3411,11 @@
       <c r="AU22" s="1" t="n">
         <v>0.2867849</v>
       </c>
-      <c r="AV22" s="1" t="n">
+      <c r="AV22" s="17" t="n">
         <v>0.2949032</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="14"/>
       <c r="B23" s="8" t="n">
         <v>12</v>
@@ -3470,7 +3503,7 @@
       <c r="AD23" s="18" t="n">
         <v>0.2196484</v>
       </c>
-      <c r="AE23" s="18" t="n">
+      <c r="AE23" s="19" t="n">
         <v>0.2760941</v>
       </c>
       <c r="AF23" s="18" t="n">
@@ -3482,7 +3515,7 @@
       <c r="AH23" s="18" t="n">
         <v>0.2808488</v>
       </c>
-      <c r="AI23" s="18" t="n">
+      <c r="AI23" s="19" t="n">
         <v>0.2315647</v>
       </c>
       <c r="AJ23" s="18" t="n">
@@ -3497,7 +3530,7 @@
       <c r="AM23" s="18" t="n">
         <v>0.3410195</v>
       </c>
-      <c r="AN23" s="18" t="n">
+      <c r="AN23" s="19" t="n">
         <v>0.2422622</v>
       </c>
       <c r="AO23" s="18" t="n">
@@ -3509,7 +3542,7 @@
       <c r="AQ23" s="18" t="n">
         <v>0.2233535</v>
       </c>
-      <c r="AR23" s="18" t="n">
+      <c r="AR23" s="19" t="n">
         <v>0.2014087</v>
       </c>
       <c r="AS23" s="18" t="n">
@@ -3521,11 +3554,11 @@
       <c r="AU23" s="18" t="n">
         <v>0.2023644</v>
       </c>
-      <c r="AV23" s="18" t="n">
+      <c r="AV23" s="19" t="n">
         <v>0.2517493</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="14"/>
       <c r="B24" s="8" t="n">
         <v>13</v>
@@ -3613,7 +3646,7 @@
       <c r="AD24" s="1" t="n">
         <v>0.233725</v>
       </c>
-      <c r="AE24" s="1" t="n">
+      <c r="AE24" s="17" t="n">
         <v>0.2054519</v>
       </c>
       <c r="AF24" s="1" t="n">
@@ -3625,7 +3658,7 @@
       <c r="AH24" s="1" t="n">
         <v>0.2889303</v>
       </c>
-      <c r="AI24" s="1" t="n">
+      <c r="AI24" s="17" t="n">
         <v>0.2510024</v>
       </c>
       <c r="AJ24" s="1" t="n">
@@ -3640,7 +3673,7 @@
       <c r="AM24" s="1" t="n">
         <v>0.2518796</v>
       </c>
-      <c r="AN24" s="1" t="n">
+      <c r="AN24" s="17" t="n">
         <v>0.2244907</v>
       </c>
       <c r="AO24" s="1" t="n">
@@ -3652,7 +3685,7 @@
       <c r="AQ24" s="1" t="n">
         <v>0.3106258</v>
       </c>
-      <c r="AR24" s="1" t="n">
+      <c r="AR24" s="17" t="n">
         <v>0.1926179</v>
       </c>
       <c r="AS24" s="1" t="n">
@@ -3664,11 +3697,11 @@
       <c r="AU24" s="1" t="n">
         <v>0.2476253</v>
       </c>
-      <c r="AV24" s="1" t="n">
+      <c r="AV24" s="17" t="n">
         <v>0.297759</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="14"/>
       <c r="B25" s="8" t="n">
         <v>4</v>
@@ -3756,7 +3789,7 @@
       <c r="AD25" s="18" t="n">
         <v>0.2524787</v>
       </c>
-      <c r="AE25" s="18" t="n">
+      <c r="AE25" s="19" t="n">
         <v>0.3664346</v>
       </c>
       <c r="AF25" s="18" t="n">
@@ -3768,7 +3801,7 @@
       <c r="AH25" s="18" t="n">
         <v>0.3059943</v>
       </c>
-      <c r="AI25" s="18" t="n">
+      <c r="AI25" s="19" t="n">
         <v>0.3907851</v>
       </c>
       <c r="AJ25" s="18" t="n">
@@ -3783,7 +3816,7 @@
       <c r="AM25" s="18" t="n">
         <v>0.3122394</v>
       </c>
-      <c r="AN25" s="18" t="n">
+      <c r="AN25" s="19" t="n">
         <v>0.2706686</v>
       </c>
       <c r="AO25" s="18" t="n">
@@ -3795,7 +3828,7 @@
       <c r="AQ25" s="18" t="n">
         <v>0.3141032</v>
       </c>
-      <c r="AR25" s="18" t="n">
+      <c r="AR25" s="19" t="n">
         <v>0.2629378</v>
       </c>
       <c r="AS25" s="18" t="n">
@@ -3807,11 +3840,11 @@
       <c r="AU25" s="18" t="n">
         <v>0.2716107</v>
       </c>
-      <c r="AV25" s="18" t="n">
+      <c r="AV25" s="19" t="n">
         <v>0.3299545</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="20"/>
       <c r="B26" s="21" t="n">
         <v>14</v>
@@ -3899,7 +3932,7 @@
       <c r="AD26" s="1" t="n">
         <v>0.3875538</v>
       </c>
-      <c r="AE26" s="1" t="n">
+      <c r="AE26" s="17" t="n">
         <v>0.3006071</v>
       </c>
       <c r="AF26" s="1" t="n">
@@ -3911,7 +3944,7 @@
       <c r="AH26" s="1" t="n">
         <v>0.3659993</v>
       </c>
-      <c r="AI26" s="1" t="n">
+      <c r="AI26" s="17" t="n">
         <v>0.2547546</v>
       </c>
       <c r="AJ26" s="1" t="n">
@@ -3926,7 +3959,7 @@
       <c r="AM26" s="1" t="n">
         <v>0.2286257</v>
       </c>
-      <c r="AN26" s="1" t="n">
+      <c r="AN26" s="17" t="n">
         <v>0.2145156</v>
       </c>
       <c r="AO26" s="1" t="n">
@@ -3938,7 +3971,7 @@
       <c r="AQ26" s="1" t="n">
         <v>0.2162233</v>
       </c>
-      <c r="AR26" s="1" t="n">
+      <c r="AR26" s="17" t="n">
         <v>0.1816054</v>
       </c>
       <c r="AS26" s="1" t="n">
@@ -3950,21 +3983,24 @@
       <c r="AU26" s="1" t="n">
         <v>0.2713019</v>
       </c>
-      <c r="AV26" s="1" t="n">
+      <c r="AV26" s="17" t="n">
         <v>0.1971393</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+      <c r="A27" s="14"/>
       <c r="B27" s="8" t="n">
         <v>15</v>
       </c>
       <c r="C27" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="E27" s="18" t="str">
         <f aca="false">AA5</f>
-        <v>x</v>
+        <v>box</v>
       </c>
       <c r="F27" s="18" t="n">
         <v>0.2915241</v>
@@ -4041,7 +4077,7 @@
       <c r="AD27" s="18" t="n">
         <v>0.1594627</v>
       </c>
-      <c r="AE27" s="18" t="n">
+      <c r="AE27" s="19" t="n">
         <v>0.2131699</v>
       </c>
       <c r="AF27" s="18" t="n">
@@ -4053,7 +4089,7 @@
       <c r="AH27" s="18" t="n">
         <v>0.2308114</v>
       </c>
-      <c r="AI27" s="18" t="n">
+      <c r="AI27" s="19" t="n">
         <v>0.19059</v>
       </c>
       <c r="AJ27" s="18" t="n">
@@ -4068,7 +4104,7 @@
       <c r="AM27" s="18" t="n">
         <v>0.2104019</v>
       </c>
-      <c r="AN27" s="18" t="n">
+      <c r="AN27" s="19" t="n">
         <v>0.1894307</v>
       </c>
       <c r="AO27" s="18" t="n">
@@ -4080,7 +4116,7 @@
       <c r="AQ27" s="18" t="n">
         <v>0.1683189</v>
       </c>
-      <c r="AR27" s="18" t="n">
+      <c r="AR27" s="19" t="n">
         <v>0.1402422</v>
       </c>
       <c r="AS27" s="18" t="n">
@@ -4092,21 +4128,22 @@
       <c r="AU27" s="18" t="n">
         <v>0.1887051</v>
       </c>
-      <c r="AV27" s="18" t="n">
+      <c r="AV27" s="19" t="n">
         <v>0.2205225</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+      <c r="A28" s="14"/>
       <c r="B28" s="8" t="n">
         <v>16</v>
       </c>
       <c r="C28" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="1" t="str">
         <f aca="false">AB5</f>
-        <v>y</v>
+        <v>box</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>0.2621425</v>
@@ -4183,7 +4220,7 @@
       <c r="AD28" s="1" t="n">
         <v>0.2156275</v>
       </c>
-      <c r="AE28" s="1" t="n">
+      <c r="AE28" s="17" t="n">
         <v>0.1776084</v>
       </c>
       <c r="AF28" s="1" t="n">
@@ -4195,7 +4232,7 @@
       <c r="AH28" s="1" t="n">
         <v>0.3021609</v>
       </c>
-      <c r="AI28" s="1" t="n">
+      <c r="AI28" s="17" t="n">
         <v>0.2288983</v>
       </c>
       <c r="AJ28" s="1" t="n">
@@ -4210,7 +4247,7 @@
       <c r="AM28" s="1" t="n">
         <v>0.1906931</v>
       </c>
-      <c r="AN28" s="1" t="n">
+      <c r="AN28" s="17" t="n">
         <v>0.2815939</v>
       </c>
       <c r="AO28" s="1" t="n">
@@ -4222,7 +4259,7 @@
       <c r="AQ28" s="1" t="n">
         <v>0.2156444</v>
       </c>
-      <c r="AR28" s="1" t="n">
+      <c r="AR28" s="17" t="n">
         <v>0.1769461</v>
       </c>
       <c r="AS28" s="1" t="n">
@@ -4234,21 +4271,22 @@
       <c r="AU28" s="1" t="n">
         <v>0.2418447</v>
       </c>
-      <c r="AV28" s="1" t="n">
+      <c r="AV28" s="17" t="n">
         <v>0.3029059</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+      <c r="A29" s="14"/>
       <c r="B29" s="8" t="n">
         <v>2</v>
       </c>
       <c r="C29" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="18" t="str">
         <f aca="false">AC5</f>
-        <v>z</v>
+        <v>bag-book</v>
       </c>
       <c r="F29" s="18" t="n">
         <v>0.4688478</v>
@@ -4325,7 +4363,7 @@
       <c r="AD29" s="18" t="n">
         <v>0.3167756</v>
       </c>
-      <c r="AE29" s="18" t="n">
+      <c r="AE29" s="19" t="n">
         <v>0.3560041</v>
       </c>
       <c r="AF29" s="18" t="n">
@@ -4337,7 +4375,7 @@
       <c r="AH29" s="18" t="n">
         <v>0.4619217</v>
       </c>
-      <c r="AI29" s="18" t="n">
+      <c r="AI29" s="19" t="n">
         <v>0.4263464</v>
       </c>
       <c r="AJ29" s="18" t="n">
@@ -4352,7 +4390,7 @@
       <c r="AM29" s="18" t="n">
         <v>0.3933201</v>
       </c>
-      <c r="AN29" s="18" t="n">
+      <c r="AN29" s="19" t="n">
         <v>0.3391047</v>
       </c>
       <c r="AO29" s="18" t="n">
@@ -4364,7 +4402,7 @@
       <c r="AQ29" s="18" t="n">
         <v>0.5064854</v>
       </c>
-      <c r="AR29" s="18" t="n">
+      <c r="AR29" s="19" t="n">
         <v>0.3640136</v>
       </c>
       <c r="AS29" s="18" t="n">
@@ -4376,21 +4414,22 @@
       <c r="AU29" s="18" t="n">
         <v>0.3885065</v>
       </c>
-      <c r="AV29" s="18" t="n">
+      <c r="AV29" s="19" t="n">
         <v>0.4633895</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+      <c r="A30" s="14"/>
       <c r="B30" s="8" t="n">
         <v>3</v>
       </c>
       <c r="C30" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="1" t="str">
         <f aca="false">AD5</f>
-        <v>aa</v>
+        <v>table</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>0.3577808</v>
@@ -4467,7 +4506,7 @@
       <c r="AD30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AE30" s="1" t="n">
+      <c r="AE30" s="17" t="n">
         <v>0.2356321</v>
       </c>
       <c r="AF30" s="1" t="n">
@@ -4479,7 +4518,7 @@
       <c r="AH30" s="1" t="n">
         <v>0.466718</v>
       </c>
-      <c r="AI30" s="1" t="n">
+      <c r="AI30" s="17" t="n">
         <v>0.338731</v>
       </c>
       <c r="AJ30" s="1" t="n">
@@ -4494,7 +4533,7 @@
       <c r="AM30" s="1" t="n">
         <v>0.2490014</v>
       </c>
-      <c r="AN30" s="1" t="n">
+      <c r="AN30" s="17" t="n">
         <v>0.2253276</v>
       </c>
       <c r="AO30" s="1" t="n">
@@ -4506,7 +4545,7 @@
       <c r="AQ30" s="1" t="n">
         <v>0.2836666</v>
       </c>
-      <c r="AR30" s="1" t="n">
+      <c r="AR30" s="17" t="n">
         <v>0.2343621</v>
       </c>
       <c r="AS30" s="1" t="n">
@@ -4518,98 +4557,99 @@
       <c r="AU30" s="1" t="n">
         <v>0.3083056</v>
       </c>
-      <c r="AV30" s="1" t="n">
+      <c r="AV30" s="17" t="n">
         <v>0.3007606</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="31">
-      <c r="B31" s="8" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+      <c r="A31" s="20"/>
+      <c r="B31" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="C31" s="8" t="n">
+      <c r="C31" s="21" t="n">
         <v>26</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="18" t="str">
+      <c r="D31" s="16"/>
+      <c r="E31" s="22" t="str">
         <f aca="false">AE5</f>
-        <v>ab</v>
-      </c>
-      <c r="F31" s="18" t="n">
+        <v>cone</v>
+      </c>
+      <c r="F31" s="22" t="n">
         <v>0.2682064</v>
       </c>
-      <c r="G31" s="18" t="n">
+      <c r="G31" s="22" t="n">
         <v>0.1528041</v>
       </c>
-      <c r="H31" s="18" t="n">
+      <c r="H31" s="22" t="n">
         <v>0.2840021</v>
       </c>
-      <c r="I31" s="18" t="n">
+      <c r="I31" s="22" t="n">
         <v>0.3642807</v>
       </c>
-      <c r="J31" s="18" t="n">
+      <c r="J31" s="22" t="n">
         <v>0.2497478</v>
       </c>
-      <c r="K31" s="18" t="n">
+      <c r="K31" s="22" t="n">
         <v>0.2406759</v>
       </c>
-      <c r="L31" s="18" t="n">
+      <c r="L31" s="22" t="n">
         <v>0.2166941</v>
       </c>
-      <c r="M31" s="18" t="n">
+      <c r="M31" s="22" t="n">
         <v>0.4894798</v>
       </c>
-      <c r="N31" s="18" t="n">
+      <c r="N31" s="22" t="n">
         <v>0.1687433</v>
       </c>
-      <c r="O31" s="18" t="n">
+      <c r="O31" s="22" t="n">
         <v>0.516571</v>
       </c>
-      <c r="P31" s="18" t="n">
+      <c r="P31" s="22" t="n">
         <v>0.2389935</v>
       </c>
-      <c r="Q31" s="18" t="n">
+      <c r="Q31" s="22" t="n">
         <v>0.2073203</v>
       </c>
-      <c r="R31" s="18" t="n">
+      <c r="R31" s="22" t="n">
         <v>0.4535982</v>
       </c>
-      <c r="S31" s="18" t="n">
+      <c r="S31" s="22" t="n">
         <v>0.2343995</v>
       </c>
-      <c r="T31" s="18" t="n">
+      <c r="T31" s="22" t="n">
         <v>0.2559825</v>
       </c>
-      <c r="U31" s="18" t="n">
+      <c r="U31" s="22" t="n">
         <v>0.1305893</v>
       </c>
-      <c r="V31" s="18" t="n">
+      <c r="V31" s="22" t="n">
         <v>0.1913693</v>
       </c>
-      <c r="W31" s="18" t="n">
+      <c r="W31" s="22" t="n">
         <v>0.2570041</v>
       </c>
-      <c r="X31" s="18" t="n">
+      <c r="X31" s="22" t="n">
         <v>0.2107281</v>
       </c>
-      <c r="Y31" s="18" t="n">
+      <c r="Y31" s="22" t="n">
         <v>0.3642327</v>
       </c>
-      <c r="Z31" s="18" t="n">
+      <c r="Z31" s="22" t="n">
         <v>0.1987336</v>
       </c>
-      <c r="AA31" s="18" t="n">
+      <c r="AA31" s="22" t="n">
         <v>0.2145637</v>
       </c>
-      <c r="AB31" s="18" t="n">
+      <c r="AB31" s="22" t="n">
         <v>0.1856086</v>
       </c>
-      <c r="AC31" s="18" t="n">
+      <c r="AC31" s="22" t="n">
         <v>0.2220636</v>
       </c>
-      <c r="AD31" s="18" t="n">
+      <c r="AD31" s="22" t="n">
         <v>0.2729984</v>
       </c>
-      <c r="AE31" s="18" t="n">
+      <c r="AE31" s="23" t="n">
         <v>1</v>
       </c>
       <c r="AF31" s="18" t="n">
@@ -4621,7 +4661,7 @@
       <c r="AH31" s="18" t="n">
         <v>0.2712576</v>
       </c>
-      <c r="AI31" s="18" t="n">
+      <c r="AI31" s="19" t="n">
         <v>0.5237991</v>
       </c>
       <c r="AJ31" s="18" t="n">
@@ -4636,7 +4676,7 @@
       <c r="AM31" s="18" t="n">
         <v>0.2278253</v>
       </c>
-      <c r="AN31" s="18" t="n">
+      <c r="AN31" s="19" t="n">
         <v>0.1956113</v>
       </c>
       <c r="AO31" s="18" t="n">
@@ -4648,7 +4688,7 @@
       <c r="AQ31" s="18" t="n">
         <v>0.1778229</v>
       </c>
-      <c r="AR31" s="18" t="n">
+      <c r="AR31" s="19" t="n">
         <v>0.1759042</v>
       </c>
       <c r="AS31" s="18" t="n">
@@ -4660,21 +4700,24 @@
       <c r="AU31" s="18" t="n">
         <v>0.2070221</v>
       </c>
-      <c r="AV31" s="18" t="n">
+      <c r="AV31" s="19" t="n">
         <v>0.2475056</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+      <c r="A32" s="14"/>
       <c r="B32" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C32" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="E32" s="1" t="str">
         <f aca="false">AF5</f>
-        <v>ac</v>
+        <v>bag-book</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>0.5770531</v>
@@ -4763,7 +4806,7 @@
       <c r="AH32" s="1" t="n">
         <v>0.5572743</v>
       </c>
-      <c r="AI32" s="1" t="n">
+      <c r="AI32" s="17" t="n">
         <v>0.5546266</v>
       </c>
       <c r="AJ32" s="1" t="n">
@@ -4778,7 +4821,7 @@
       <c r="AM32" s="1" t="n">
         <v>0.4387098</v>
       </c>
-      <c r="AN32" s="1" t="n">
+      <c r="AN32" s="17" t="n">
         <v>0.3590964</v>
       </c>
       <c r="AO32" s="1" t="n">
@@ -4790,7 +4833,7 @@
       <c r="AQ32" s="1" t="n">
         <v>0.6175847</v>
       </c>
-      <c r="AR32" s="1" t="n">
+      <c r="AR32" s="17" t="n">
         <v>0.4501744</v>
       </c>
       <c r="AS32" s="1" t="n">
@@ -4802,21 +4845,22 @@
       <c r="AU32" s="1" t="n">
         <v>0.4401868</v>
       </c>
-      <c r="AV32" s="1" t="n">
+      <c r="AV32" s="17" t="n">
         <v>0.5811638</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+      <c r="A33" s="14"/>
       <c r="B33" s="8" t="n">
         <v>17</v>
       </c>
       <c r="C33" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="18" t="str">
         <f aca="false">AG5</f>
-        <v>ad</v>
+        <v>chair</v>
       </c>
       <c r="F33" s="18" t="n">
         <v>0.3177347</v>
@@ -4905,7 +4949,7 @@
       <c r="AH33" s="18" t="n">
         <v>0.2607549</v>
       </c>
-      <c r="AI33" s="18" t="n">
+      <c r="AI33" s="19" t="n">
         <v>0.2193391</v>
       </c>
       <c r="AJ33" s="18" t="n">
@@ -4920,7 +4964,7 @@
       <c r="AM33" s="18" t="n">
         <v>0.3088072</v>
       </c>
-      <c r="AN33" s="18" t="n">
+      <c r="AN33" s="19" t="n">
         <v>0.2131896</v>
       </c>
       <c r="AO33" s="18" t="n">
@@ -4932,7 +4976,7 @@
       <c r="AQ33" s="18" t="n">
         <v>0.23811</v>
       </c>
-      <c r="AR33" s="18" t="n">
+      <c r="AR33" s="19" t="n">
         <v>0.2154543</v>
       </c>
       <c r="AS33" s="18" t="n">
@@ -4944,21 +4988,22 @@
       <c r="AU33" s="18" t="n">
         <v>0.2047437</v>
       </c>
-      <c r="AV33" s="18" t="n">
+      <c r="AV33" s="19" t="n">
         <v>0.3003697</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+      <c r="A34" s="14"/>
       <c r="B34" s="8" t="n">
         <v>3</v>
       </c>
       <c r="C34" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="1" t="str">
         <f aca="false">AH5</f>
-        <v>ae</v>
+        <v>table</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>0.3540118</v>
@@ -5047,7 +5092,7 @@
       <c r="AH34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AI34" s="1" t="n">
+      <c r="AI34" s="17" t="n">
         <v>0.2594439</v>
       </c>
       <c r="AJ34" s="1" t="n">
@@ -5062,7 +5107,7 @@
       <c r="AM34" s="1" t="n">
         <v>0.2810268</v>
       </c>
-      <c r="AN34" s="1" t="n">
+      <c r="AN34" s="17" t="n">
         <v>0.2760165</v>
       </c>
       <c r="AO34" s="1" t="n">
@@ -5074,7 +5119,7 @@
       <c r="AQ34" s="1" t="n">
         <v>0.2754383</v>
       </c>
-      <c r="AR34" s="1" t="n">
+      <c r="AR34" s="17" t="n">
         <v>0.2258253</v>
       </c>
       <c r="AS34" s="1" t="n">
@@ -5086,110 +5131,111 @@
       <c r="AU34" s="1" t="n">
         <v>0.2781549</v>
       </c>
-      <c r="AV34" s="1" t="n">
+      <c r="AV34" s="17" t="n">
         <v>0.3293492</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="35">
-      <c r="B35" s="8" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+      <c r="A35" s="20"/>
+      <c r="B35" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="C35" s="8" t="n">
+      <c r="C35" s="21" t="n">
         <v>30</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="18" t="str">
+      <c r="D35" s="16"/>
+      <c r="E35" s="22" t="str">
         <f aca="false">AI5</f>
-        <v>af</v>
-      </c>
-      <c r="F35" s="18" t="n">
+        <v>cone</v>
+      </c>
+      <c r="F35" s="22" t="n">
         <v>0.2518487</v>
       </c>
-      <c r="G35" s="18" t="n">
+      <c r="G35" s="22" t="n">
         <v>0.1619901</v>
       </c>
-      <c r="H35" s="18" t="n">
+      <c r="H35" s="22" t="n">
         <v>0.2103282</v>
       </c>
-      <c r="I35" s="18" t="n">
+      <c r="I35" s="22" t="n">
         <v>0.4067057</v>
       </c>
-      <c r="J35" s="18" t="n">
+      <c r="J35" s="22" t="n">
         <v>0.1982095</v>
       </c>
-      <c r="K35" s="18" t="n">
+      <c r="K35" s="22" t="n">
         <v>0.250944</v>
       </c>
-      <c r="L35" s="18" t="n">
+      <c r="L35" s="22" t="n">
         <v>0.2059169</v>
       </c>
-      <c r="M35" s="18" t="n">
+      <c r="M35" s="22" t="n">
         <v>0.3806234</v>
       </c>
-      <c r="N35" s="18" t="n">
+      <c r="N35" s="22" t="n">
         <v>0.1504952</v>
       </c>
-      <c r="O35" s="18" t="n">
+      <c r="O35" s="22" t="n">
         <v>0.4666936</v>
       </c>
-      <c r="P35" s="18" t="n">
+      <c r="P35" s="22" t="n">
         <v>0.2064407</v>
       </c>
-      <c r="Q35" s="18" t="n">
+      <c r="Q35" s="22" t="n">
         <v>0.1780195</v>
       </c>
-      <c r="R35" s="18" t="n">
+      <c r="R35" s="22" t="n">
         <v>0.418037</v>
       </c>
-      <c r="S35" s="18" t="n">
+      <c r="S35" s="22" t="n">
         <v>0.205449</v>
       </c>
-      <c r="T35" s="18" t="n">
+      <c r="T35" s="22" t="n">
         <v>0.2304733</v>
       </c>
-      <c r="U35" s="18" t="n">
+      <c r="U35" s="22" t="n">
         <v>0.1598942</v>
       </c>
-      <c r="V35" s="18" t="n">
+      <c r="V35" s="22" t="n">
         <v>0.1600749</v>
       </c>
-      <c r="W35" s="18" t="n">
+      <c r="W35" s="22" t="n">
         <v>0.234327</v>
       </c>
-      <c r="X35" s="18" t="n">
+      <c r="X35" s="22" t="n">
         <v>0.1832597</v>
       </c>
-      <c r="Y35" s="18" t="n">
+      <c r="Y35" s="22" t="n">
         <v>0.4042684</v>
       </c>
-      <c r="Z35" s="18" t="n">
+      <c r="Z35" s="22" t="n">
         <v>0.1438853</v>
       </c>
-      <c r="AA35" s="18" t="n">
+      <c r="AA35" s="22" t="n">
         <v>0.1979346</v>
       </c>
-      <c r="AB35" s="18" t="n">
+      <c r="AB35" s="22" t="n">
         <v>0.1900813</v>
       </c>
-      <c r="AC35" s="18" t="n">
+      <c r="AC35" s="22" t="n">
         <v>0.1791038</v>
       </c>
-      <c r="AD35" s="18" t="n">
+      <c r="AD35" s="22" t="n">
         <v>0.2082929</v>
       </c>
-      <c r="AE35" s="18" t="n">
+      <c r="AE35" s="22" t="n">
         <v>0.4725534</v>
       </c>
-      <c r="AF35" s="18" t="n">
+      <c r="AF35" s="22" t="n">
         <v>0.1943714</v>
       </c>
-      <c r="AG35" s="18" t="n">
+      <c r="AG35" s="22" t="n">
         <v>0.1790556</v>
       </c>
-      <c r="AH35" s="18" t="n">
+      <c r="AH35" s="22" t="n">
         <v>0.2128364</v>
       </c>
-      <c r="AI35" s="18" t="n">
+      <c r="AI35" s="23" t="n">
         <v>1</v>
       </c>
       <c r="AJ35" s="18" t="n">
@@ -5204,7 +5250,7 @@
       <c r="AM35" s="18" t="n">
         <v>0.2098743</v>
       </c>
-      <c r="AN35" s="18" t="n">
+      <c r="AN35" s="19" t="n">
         <v>0.2086115</v>
       </c>
       <c r="AO35" s="18" t="n">
@@ -5216,7 +5262,7 @@
       <c r="AQ35" s="18" t="n">
         <v>0.1881902</v>
       </c>
-      <c r="AR35" s="18" t="n">
+      <c r="AR35" s="19" t="n">
         <v>0.1522028</v>
       </c>
       <c r="AS35" s="18" t="n">
@@ -5228,21 +5274,24 @@
       <c r="AU35" s="18" t="n">
         <v>0.1519019</v>
       </c>
-      <c r="AV35" s="18" t="n">
+      <c r="AV35" s="19" t="n">
         <v>0.2780001</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="36">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+      <c r="A36" s="14"/>
       <c r="B36" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="D36" s="8"/>
+      <c r="D36" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="E36" s="1" t="str">
         <f aca="false">AJ5</f>
-        <v>ag</v>
+        <v>chair</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>0.3904959</v>
@@ -5346,7 +5395,7 @@
       <c r="AM36" s="1" t="n">
         <v>0.3177354</v>
       </c>
-      <c r="AN36" s="1" t="n">
+      <c r="AN36" s="17" t="n">
         <v>0.2600676</v>
       </c>
       <c r="AO36" s="1" t="n">
@@ -5358,7 +5407,7 @@
       <c r="AQ36" s="1" t="n">
         <v>0.3086586</v>
       </c>
-      <c r="AR36" s="1" t="n">
+      <c r="AR36" s="17" t="n">
         <v>0.3237074</v>
       </c>
       <c r="AS36" s="1" t="n">
@@ -5370,21 +5419,22 @@
       <c r="AU36" s="1" t="n">
         <v>0.2611743</v>
       </c>
-      <c r="AV36" s="1" t="n">
+      <c r="AV36" s="17" t="n">
         <v>0.3301362</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
+      <c r="A37" s="14"/>
       <c r="B37" s="8" t="n">
         <v>18</v>
       </c>
       <c r="C37" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="D37" s="8"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="18" t="str">
         <f aca="false">AK5</f>
-        <v>ah</v>
+        <v>box</v>
       </c>
       <c r="F37" s="18" t="n">
         <v>0.2506149</v>
@@ -5488,7 +5538,7 @@
       <c r="AM37" s="18" t="n">
         <v>0.1956324</v>
       </c>
-      <c r="AN37" s="18" t="n">
+      <c r="AN37" s="19" t="n">
         <v>0.2560976</v>
       </c>
       <c r="AO37" s="18" t="n">
@@ -5500,7 +5550,7 @@
       <c r="AQ37" s="18" t="n">
         <v>0.2182756</v>
       </c>
-      <c r="AR37" s="18" t="n">
+      <c r="AR37" s="19" t="n">
         <v>0.1828883</v>
       </c>
       <c r="AS37" s="18" t="n">
@@ -5512,21 +5562,22 @@
       <c r="AU37" s="18" t="n">
         <v>0.2159776</v>
       </c>
-      <c r="AV37" s="18" t="n">
+      <c r="AV37" s="19" t="n">
         <v>0.2581121</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="38">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+      <c r="A38" s="14"/>
       <c r="B38" s="8" t="n">
         <v>2</v>
       </c>
       <c r="C38" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="D38" s="8"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="1" t="str">
         <f aca="false">AL5</f>
-        <v>ai</v>
+        <v>bag-book</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>0.3233767</v>
@@ -5630,7 +5681,7 @@
       <c r="AM38" s="1" t="n">
         <v>0.2779856</v>
       </c>
-      <c r="AN38" s="1" t="n">
+      <c r="AN38" s="17" t="n">
         <v>0.2580008</v>
       </c>
       <c r="AO38" s="1" t="n">
@@ -5642,7 +5693,7 @@
       <c r="AQ38" s="1" t="n">
         <v>0.2939517</v>
       </c>
-      <c r="AR38" s="1" t="n">
+      <c r="AR38" s="17" t="n">
         <v>0.2399821</v>
       </c>
       <c r="AS38" s="1" t="n">
@@ -5654,21 +5705,22 @@
       <c r="AU38" s="1" t="n">
         <v>0.3664154</v>
       </c>
-      <c r="AV38" s="1" t="n">
+      <c r="AV38" s="17" t="n">
         <v>0.3160686</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+      <c r="A39" s="14"/>
       <c r="B39" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C39" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="16"/>
       <c r="E39" s="18" t="str">
         <f aca="false">AM5</f>
-        <v>aj</v>
+        <v>chair</v>
       </c>
       <c r="F39" s="18" t="n">
         <v>0.4906389</v>
@@ -5772,7 +5824,7 @@
       <c r="AM39" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AN39" s="18" t="n">
+      <c r="AN39" s="19" t="n">
         <v>0.2882769</v>
       </c>
       <c r="AO39" s="18" t="n">
@@ -5784,7 +5836,7 @@
       <c r="AQ39" s="18" t="n">
         <v>0.3470377</v>
       </c>
-      <c r="AR39" s="18" t="n">
+      <c r="AR39" s="19" t="n">
         <v>0.3348069</v>
       </c>
       <c r="AS39" s="18" t="n">
@@ -5796,125 +5848,126 @@
       <c r="AU39" s="18" t="n">
         <v>0.3249895</v>
       </c>
-      <c r="AV39" s="18" t="n">
+      <c r="AV39" s="19" t="n">
         <v>0.3659833</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="40">
-      <c r="B40" s="8" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+      <c r="A40" s="20"/>
+      <c r="B40" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="C40" s="8" t="n">
+      <c r="C40" s="21" t="n">
         <v>35</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="1" t="str">
+      <c r="D40" s="16"/>
+      <c r="E40" s="24" t="str">
         <f aca="false">AN5</f>
-        <v>ak</v>
-      </c>
-      <c r="F40" s="1" t="n">
+        <v>stool</v>
+      </c>
+      <c r="F40" s="24" t="n">
         <v>0.287976</v>
       </c>
-      <c r="G40" s="1" t="n">
+      <c r="G40" s="24" t="n">
         <v>0.2345706</v>
       </c>
-      <c r="H40" s="1" t="n">
+      <c r="H40" s="24" t="n">
         <v>0.3162239</v>
       </c>
-      <c r="I40" s="1" t="n">
+      <c r="I40" s="24" t="n">
         <v>0.2195988</v>
       </c>
-      <c r="J40" s="1" t="n">
+      <c r="J40" s="24" t="n">
         <v>0.2730909</v>
       </c>
-      <c r="K40" s="1" t="n">
+      <c r="K40" s="24" t="n">
         <v>0.4376111</v>
       </c>
-      <c r="L40" s="1" t="n">
+      <c r="L40" s="24" t="n">
         <v>0.236929</v>
       </c>
-      <c r="M40" s="1" t="n">
+      <c r="M40" s="24" t="n">
         <v>0.1754893</v>
       </c>
-      <c r="N40" s="1" t="n">
+      <c r="N40" s="24" t="n">
         <v>0.2243906</v>
       </c>
-      <c r="O40" s="1" t="n">
+      <c r="O40" s="24" t="n">
         <v>0.1696396</v>
       </c>
-      <c r="P40" s="1" t="n">
+      <c r="P40" s="24" t="n">
         <v>0.3132091</v>
       </c>
-      <c r="Q40" s="1" t="n">
+      <c r="Q40" s="24" t="n">
         <v>0.2359059</v>
       </c>
-      <c r="R40" s="1" t="n">
+      <c r="R40" s="24" t="n">
         <v>0.1897746</v>
       </c>
-      <c r="S40" s="1" t="n">
+      <c r="S40" s="24" t="n">
         <v>0.2658432</v>
       </c>
-      <c r="T40" s="1" t="n">
+      <c r="T40" s="24" t="n">
         <v>0.264096</v>
       </c>
-      <c r="U40" s="1" t="n">
+      <c r="U40" s="24" t="n">
         <v>0.1785213</v>
       </c>
-      <c r="V40" s="1" t="n">
+      <c r="V40" s="24" t="n">
         <v>0.2078628</v>
       </c>
-      <c r="W40" s="1" t="n">
+      <c r="W40" s="24" t="n">
         <v>0.2251727</v>
       </c>
-      <c r="X40" s="1" t="n">
+      <c r="X40" s="24" t="n">
         <v>0.2487478</v>
       </c>
-      <c r="Y40" s="1" t="n">
+      <c r="Y40" s="24" t="n">
         <v>0.2553795</v>
       </c>
-      <c r="Z40" s="1" t="n">
+      <c r="Z40" s="24" t="n">
         <v>0.1952129</v>
       </c>
-      <c r="AA40" s="1" t="n">
+      <c r="AA40" s="24" t="n">
         <v>0.2721785</v>
       </c>
-      <c r="AB40" s="1" t="n">
+      <c r="AB40" s="24" t="n">
         <v>0.3211128</v>
       </c>
-      <c r="AC40" s="1" t="n">
+      <c r="AC40" s="24" t="n">
         <v>0.2818509</v>
       </c>
-      <c r="AD40" s="1" t="n">
+      <c r="AD40" s="24" t="n">
         <v>0.1885955</v>
       </c>
-      <c r="AE40" s="1" t="n">
+      <c r="AE40" s="24" t="n">
         <v>0.2179921</v>
       </c>
-      <c r="AF40" s="1" t="n">
+      <c r="AF40" s="24" t="n">
         <v>0.2611048</v>
       </c>
-      <c r="AG40" s="1" t="n">
+      <c r="AG40" s="24" t="n">
         <v>0.2447905</v>
       </c>
-      <c r="AH40" s="1" t="n">
+      <c r="AH40" s="24" t="n">
         <v>0.3009546</v>
       </c>
-      <c r="AI40" s="1" t="n">
+      <c r="AI40" s="24" t="n">
         <v>0.2564314</v>
       </c>
-      <c r="AJ40" s="1" t="n">
+      <c r="AJ40" s="24" t="n">
         <v>0.2809334</v>
       </c>
-      <c r="AK40" s="1" t="n">
+      <c r="AK40" s="24" t="n">
         <v>0.3041357</v>
       </c>
-      <c r="AL40" s="1" t="n">
+      <c r="AL40" s="24" t="n">
         <v>0.2539045</v>
       </c>
-      <c r="AM40" s="1" t="n">
+      <c r="AM40" s="24" t="n">
         <v>0.2440076</v>
       </c>
-      <c r="AN40" s="1" t="n">
+      <c r="AN40" s="25" t="n">
         <v>1</v>
       </c>
       <c r="AO40" s="1" t="n">
@@ -5926,7 +5979,7 @@
       <c r="AQ40" s="1" t="n">
         <v>0.2330761</v>
       </c>
-      <c r="AR40" s="1" t="n">
+      <c r="AR40" s="17" t="n">
         <v>0.2069279</v>
       </c>
       <c r="AS40" s="1" t="n">
@@ -5938,21 +5991,24 @@
       <c r="AU40" s="1" t="n">
         <v>0.2016438</v>
       </c>
-      <c r="AV40" s="1" t="n">
+      <c r="AV40" s="17" t="n">
         <v>0.4713337</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
+      <c r="A41" s="14"/>
       <c r="B41" s="8" t="n">
         <v>5</v>
       </c>
       <c r="C41" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="E41" s="18" t="str">
         <f aca="false">AO5</f>
-        <v>al</v>
+        <v>stool</v>
       </c>
       <c r="F41" s="18" t="n">
         <v>0.3148458</v>
@@ -6068,7 +6124,7 @@
       <c r="AQ41" s="18" t="n">
         <v>0.2450579</v>
       </c>
-      <c r="AR41" s="18" t="n">
+      <c r="AR41" s="19" t="n">
         <v>0.2080628</v>
       </c>
       <c r="AS41" s="18" t="n">
@@ -6080,21 +6136,22 @@
       <c r="AU41" s="18" t="n">
         <v>0.1978689</v>
       </c>
-      <c r="AV41" s="18" t="n">
+      <c r="AV41" s="19" t="n">
         <v>0.4395953</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+      <c r="A42" s="14"/>
       <c r="B42" s="8" t="n">
         <v>16</v>
       </c>
       <c r="C42" s="8" t="n">
         <v>37</v>
       </c>
-      <c r="D42" s="8"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="1" t="str">
         <f aca="false">AP5</f>
-        <v>am</v>
+        <v>box</v>
       </c>
       <c r="F42" s="1" t="n">
         <v>0.3058418</v>
@@ -6210,7 +6267,7 @@
       <c r="AQ42" s="1" t="n">
         <v>0.2591033</v>
       </c>
-      <c r="AR42" s="1" t="n">
+      <c r="AR42" s="17" t="n">
         <v>0.2167793</v>
       </c>
       <c r="AS42" s="1" t="n">
@@ -6222,21 +6279,22 @@
       <c r="AU42" s="1" t="n">
         <v>0.2606536</v>
       </c>
-      <c r="AV42" s="1" t="n">
+      <c r="AV42" s="17" t="n">
         <v>0.314352</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="43">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
+      <c r="A43" s="14"/>
       <c r="B43" s="8" t="n">
         <v>19</v>
       </c>
       <c r="C43" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D43" s="8"/>
+      <c r="D43" s="16"/>
       <c r="E43" s="18" t="str">
         <f aca="false">AQ5</f>
-        <v>an</v>
+        <v>bag-book</v>
       </c>
       <c r="F43" s="18" t="n">
         <v>0.331098</v>
@@ -6352,7 +6410,7 @@
       <c r="AQ43" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AR43" s="18" t="n">
+      <c r="AR43" s="19" t="n">
         <v>0.2330682</v>
       </c>
       <c r="AS43" s="18" t="n">
@@ -6364,137 +6422,138 @@
       <c r="AU43" s="18" t="n">
         <v>0.2828202</v>
       </c>
-      <c r="AV43" s="18" t="n">
+      <c r="AV43" s="19" t="n">
         <v>0.3361021</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="44">
-      <c r="B44" s="8" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+      <c r="A44" s="20"/>
+      <c r="B44" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="8" t="n">
+      <c r="C44" s="21" t="n">
         <v>39</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="1" t="str">
+      <c r="D44" s="16"/>
+      <c r="E44" s="24" t="str">
         <f aca="false">AR5</f>
-        <v>ao</v>
-      </c>
-      <c r="F44" s="1" t="n">
+        <v>chair</v>
+      </c>
+      <c r="F44" s="24" t="n">
         <v>0.4269311</v>
       </c>
-      <c r="G44" s="1" t="n">
+      <c r="G44" s="24" t="n">
         <v>0.227465</v>
       </c>
-      <c r="H44" s="1" t="n">
+      <c r="H44" s="24" t="n">
         <v>0.2793675</v>
       </c>
-      <c r="I44" s="1" t="n">
+      <c r="I44" s="24" t="n">
         <v>0.3321044</v>
       </c>
-      <c r="J44" s="1" t="n">
+      <c r="J44" s="24" t="n">
         <v>0.3271108</v>
       </c>
-      <c r="K44" s="1" t="n">
+      <c r="K44" s="24" t="n">
         <v>0.294212</v>
       </c>
-      <c r="L44" s="1" t="n">
+      <c r="L44" s="24" t="n">
         <v>0.2246098</v>
       </c>
-      <c r="M44" s="1" t="n">
+      <c r="M44" s="24" t="n">
         <v>0.2522403</v>
       </c>
-      <c r="N44" s="1" t="n">
+      <c r="N44" s="24" t="n">
         <v>0.240874</v>
       </c>
-      <c r="O44" s="1" t="n">
+      <c r="O44" s="24" t="n">
         <v>0.2011965</v>
       </c>
-      <c r="P44" s="1" t="n">
+      <c r="P44" s="24" t="n">
         <v>0.3199964</v>
       </c>
-      <c r="Q44" s="1" t="n">
+      <c r="Q44" s="24" t="n">
         <v>0.2798204</v>
       </c>
-      <c r="R44" s="1" t="n">
+      <c r="R44" s="24" t="n">
         <v>0.2584949</v>
       </c>
-      <c r="S44" s="1" t="n">
+      <c r="S44" s="24" t="n">
         <v>0.3214177</v>
       </c>
-      <c r="T44" s="1" t="n">
+      <c r="T44" s="24" t="n">
         <v>0.3260479</v>
       </c>
-      <c r="U44" s="1" t="n">
+      <c r="U44" s="24" t="n">
         <v>0.2029071</v>
       </c>
-      <c r="V44" s="1" t="n">
+      <c r="V44" s="24" t="n">
         <v>0.3382407</v>
       </c>
-      <c r="W44" s="1" t="n">
+      <c r="W44" s="24" t="n">
         <v>0.4036594</v>
       </c>
-      <c r="X44" s="1" t="n">
+      <c r="X44" s="24" t="n">
         <v>0.2409456</v>
       </c>
-      <c r="Y44" s="1" t="n">
+      <c r="Y44" s="24" t="n">
         <v>0.3275861</v>
       </c>
-      <c r="Z44" s="1" t="n">
+      <c r="Z44" s="24" t="n">
         <v>0.2329541</v>
       </c>
-      <c r="AA44" s="1" t="n">
+      <c r="AA44" s="24" t="n">
         <v>0.3480267</v>
       </c>
-      <c r="AB44" s="1" t="n">
+      <c r="AB44" s="24" t="n">
         <v>0.2432827</v>
       </c>
-      <c r="AC44" s="1" t="n">
+      <c r="AC44" s="24" t="n">
         <v>0.3057079</v>
       </c>
-      <c r="AD44" s="1" t="n">
+      <c r="AD44" s="24" t="n">
         <v>0.229398</v>
       </c>
-      <c r="AE44" s="1" t="n">
+      <c r="AE44" s="24" t="n">
         <v>0.315364</v>
       </c>
-      <c r="AF44" s="1" t="n">
+      <c r="AF44" s="24" t="n">
         <v>0.3102687</v>
       </c>
-      <c r="AG44" s="1" t="n">
+      <c r="AG44" s="24" t="n">
         <v>0.3173167</v>
       </c>
-      <c r="AH44" s="1" t="n">
+      <c r="AH44" s="24" t="n">
         <v>0.2667302</v>
       </c>
-      <c r="AI44" s="1" t="n">
+      <c r="AI44" s="24" t="n">
         <v>0.34371</v>
       </c>
-      <c r="AJ44" s="1" t="n">
+      <c r="AJ44" s="24" t="n">
         <v>0.3773628</v>
       </c>
-      <c r="AK44" s="1" t="n">
+      <c r="AK44" s="24" t="n">
         <v>0.1989542</v>
       </c>
-      <c r="AL44" s="1" t="n">
+      <c r="AL44" s="24" t="n">
         <v>0.3485998</v>
       </c>
-      <c r="AM44" s="1" t="n">
+      <c r="AM44" s="24" t="n">
         <v>0.4213879</v>
       </c>
-      <c r="AN44" s="1" t="n">
+      <c r="AN44" s="24" t="n">
         <v>0.2953429</v>
       </c>
-      <c r="AO44" s="1" t="n">
+      <c r="AO44" s="24" t="n">
         <v>0.2987685</v>
       </c>
-      <c r="AP44" s="1" t="n">
+      <c r="AP44" s="24" t="n">
         <v>0.2546893</v>
       </c>
-      <c r="AQ44" s="1" t="n">
+      <c r="AQ44" s="24" t="n">
         <v>0.3329764</v>
       </c>
-      <c r="AR44" s="1" t="n">
+      <c r="AR44" s="25" t="n">
         <v>1</v>
       </c>
       <c r="AS44" s="1" t="n">
@@ -6506,21 +6565,24 @@
       <c r="AU44" s="1" t="n">
         <v>0.2928928</v>
       </c>
-      <c r="AV44" s="1" t="n">
+      <c r="AV44" s="17" t="n">
         <v>0.44864</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="45">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+      <c r="A45" s="14"/>
       <c r="B45" s="8" t="n">
         <v>16</v>
       </c>
       <c r="C45" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="D45" s="8"/>
+      <c r="D45" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="E45" s="18" t="str">
         <f aca="false">AS5</f>
-        <v>ap</v>
+        <v>box</v>
       </c>
       <c r="F45" s="18" t="n">
         <v>0.3057071</v>
@@ -6648,21 +6710,22 @@
       <c r="AU45" s="18" t="n">
         <v>0.2747555</v>
       </c>
-      <c r="AV45" s="18" t="n">
+      <c r="AV45" s="19" t="n">
         <v>0.2745601</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="46">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
+      <c r="A46" s="14"/>
       <c r="B46" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C46" s="8" t="n">
         <v>41</v>
       </c>
-      <c r="D46" s="8"/>
+      <c r="D46" s="16"/>
       <c r="E46" s="1" t="str">
         <f aca="false">AT5</f>
-        <v>aq</v>
+        <v>table</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>0.3950475</v>
@@ -6790,21 +6853,22 @@
       <c r="AU46" s="1" t="n">
         <v>0.3119045</v>
       </c>
-      <c r="AV46" s="1" t="n">
+      <c r="AV46" s="17" t="n">
         <v>0.344272</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="47">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+      <c r="A47" s="14"/>
       <c r="B47" s="8" t="n">
         <v>20</v>
       </c>
       <c r="C47" s="8" t="n">
         <v>42</v>
       </c>
-      <c r="D47" s="8"/>
+      <c r="D47" s="16"/>
       <c r="E47" s="18" t="str">
         <f aca="false">AU5</f>
-        <v>ar</v>
+        <v>bag-book</v>
       </c>
       <c r="F47" s="18" t="n">
         <v>0.3268158</v>
@@ -6932,161 +6996,162 @@
       <c r="AU47" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AV47" s="18" t="n">
+      <c r="AV47" s="19" t="n">
         <v>0.2894691</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="48">
-      <c r="B48" s="8" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
+      <c r="A48" s="20"/>
+      <c r="B48" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="C48" s="8" t="n">
+      <c r="C48" s="21" t="n">
         <v>43</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="1" t="str">
+      <c r="D48" s="16"/>
+      <c r="E48" s="24" t="str">
         <f aca="false">AV5</f>
-        <v>as</v>
-      </c>
-      <c r="F48" s="1" t="n">
+        <v>stool</v>
+      </c>
+      <c r="F48" s="24" t="n">
         <v>0.2791601</v>
       </c>
-      <c r="G48" s="1" t="n">
+      <c r="G48" s="24" t="n">
         <v>0.1986585</v>
       </c>
-      <c r="H48" s="1" t="n">
+      <c r="H48" s="24" t="n">
         <v>0.2781895</v>
       </c>
-      <c r="I48" s="1" t="n">
+      <c r="I48" s="24" t="n">
         <v>0.2398362</v>
       </c>
-      <c r="J48" s="1" t="n">
+      <c r="J48" s="24" t="n">
         <v>0.2343405</v>
       </c>
-      <c r="K48" s="1" t="n">
+      <c r="K48" s="24" t="n">
         <v>0.4204729</v>
       </c>
-      <c r="L48" s="1" t="n">
+      <c r="L48" s="24" t="n">
         <v>0.2272466</v>
       </c>
-      <c r="M48" s="1" t="n">
+      <c r="M48" s="24" t="n">
         <v>0.2046065</v>
       </c>
-      <c r="N48" s="1" t="n">
+      <c r="N48" s="24" t="n">
         <v>0.1836526</v>
       </c>
-      <c r="O48" s="1" t="n">
+      <c r="O48" s="24" t="n">
         <v>0.1648032</v>
       </c>
-      <c r="P48" s="1" t="n">
+      <c r="P48" s="24" t="n">
         <v>0.2797555</v>
       </c>
-      <c r="Q48" s="1" t="n">
+      <c r="Q48" s="24" t="n">
         <v>0.2106155</v>
       </c>
-      <c r="R48" s="1" t="n">
+      <c r="R48" s="24" t="n">
         <v>0.1990885</v>
       </c>
-      <c r="S48" s="1" t="n">
+      <c r="S48" s="24" t="n">
         <v>0.2606721</v>
       </c>
-      <c r="T48" s="1" t="n">
+      <c r="T48" s="24" t="n">
         <v>0.2301637</v>
       </c>
-      <c r="U48" s="1" t="n">
+      <c r="U48" s="24" t="n">
         <v>0.1562311</v>
       </c>
-      <c r="V48" s="1" t="n">
+      <c r="V48" s="24" t="n">
         <v>0.1742596</v>
       </c>
-      <c r="W48" s="1" t="n">
+      <c r="W48" s="24" t="n">
         <v>0.2134112</v>
       </c>
-      <c r="X48" s="1" t="n">
+      <c r="X48" s="24" t="n">
         <v>0.2425668</v>
       </c>
-      <c r="Y48" s="1" t="n">
+      <c r="Y48" s="24" t="n">
         <v>0.2362916</v>
       </c>
-      <c r="Z48" s="1" t="n">
+      <c r="Z48" s="24" t="n">
         <v>0.1677872</v>
       </c>
-      <c r="AA48" s="1" t="n">
+      <c r="AA48" s="24" t="n">
         <v>0.216343</v>
       </c>
-      <c r="AB48" s="1" t="n">
+      <c r="AB48" s="24" t="n">
         <v>0.291676</v>
       </c>
-      <c r="AC48" s="1" t="n">
+      <c r="AC48" s="24" t="n">
         <v>0.221011</v>
       </c>
-      <c r="AD48" s="1" t="n">
+      <c r="AD48" s="24" t="n">
         <v>0.201742</v>
       </c>
-      <c r="AE48" s="1" t="n">
+      <c r="AE48" s="24" t="n">
         <v>0.2171649</v>
       </c>
-      <c r="AF48" s="1" t="n">
+      <c r="AF48" s="24" t="n">
         <v>0.2257247</v>
       </c>
-      <c r="AG48" s="1" t="n">
+      <c r="AG48" s="24" t="n">
         <v>0.2476895</v>
       </c>
-      <c r="AH48" s="1" t="n">
+      <c r="AH48" s="24" t="n">
         <v>0.3164046</v>
       </c>
-      <c r="AI48" s="1" t="n">
+      <c r="AI48" s="24" t="n">
         <v>0.2501539</v>
       </c>
-      <c r="AJ48" s="1" t="n">
+      <c r="AJ48" s="24" t="n">
         <v>0.2425781</v>
       </c>
-      <c r="AK48" s="1" t="n">
+      <c r="AK48" s="24" t="n">
         <v>0.2566511</v>
       </c>
-      <c r="AL48" s="1" t="n">
+      <c r="AL48" s="24" t="n">
         <v>0.2114027</v>
       </c>
-      <c r="AM48" s="1" t="n">
+      <c r="AM48" s="24" t="n">
         <v>0.2013888</v>
       </c>
-      <c r="AN48" s="1" t="n">
+      <c r="AN48" s="24" t="n">
         <v>0.3605886</v>
       </c>
-      <c r="AO48" s="1" t="n">
+      <c r="AO48" s="24" t="n">
         <v>0.389721</v>
       </c>
-      <c r="AP48" s="1" t="n">
+      <c r="AP48" s="24" t="n">
         <v>0.2537008</v>
       </c>
-      <c r="AQ48" s="1" t="n">
+      <c r="AQ48" s="24" t="n">
         <v>0.2196214</v>
       </c>
-      <c r="AR48" s="1" t="n">
+      <c r="AR48" s="24" t="n">
         <v>0.1774638</v>
       </c>
-      <c r="AS48" s="1" t="n">
+      <c r="AS48" s="24" t="n">
         <v>0.2946072</v>
       </c>
-      <c r="AT48" s="1" t="n">
+      <c r="AT48" s="24" t="n">
         <v>0.2054358</v>
       </c>
-      <c r="AU48" s="1" t="n">
+      <c r="AU48" s="24" t="n">
         <v>0.1804944</v>
       </c>
-      <c r="AV48" s="1" t="n">
+      <c r="AV48" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="52">
       <c r="A52" s="26" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D52" s="26"/>
       <c r="E52" s="2"/>
@@ -7101,21 +7166,30 @@
         <f aca="false">B6</f>
         <v>1</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="H53" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I53" s="1" t="n">
+      <c r="C53" s="8" t="n">
+        <f aca="false">B23</f>
+        <v>12</v>
+      </c>
+      <c r="D53" s="8" t="n">
+        <f aca="false">B33</f>
+        <v>17</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="K53" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" s="1" t="n">
         <v>0.39</v>
       </c>
-      <c r="M53" s="0"/>
-      <c r="N53" s="0"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
+      <c r="P53" s="0"/>
+      <c r="Q53" s="0"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
       <c r="A54" s="8" t="str">
@@ -7130,20 +7204,32 @@
         <f aca="false">B19</f>
         <v>9</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="H54" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I54" s="1" t="n">
+      <c r="D54" s="8" t="n">
+        <f aca="false">B24</f>
+        <v>13</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <f aca="false">B43</f>
+        <v>19</v>
+      </c>
+      <c r="F54" s="8" t="n">
+        <f aca="false">B47</f>
+        <v>20</v>
+      </c>
+      <c r="G54" s="8"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="K54" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" s="1" t="n">
         <v>0.75</v>
       </c>
-      <c r="M54" s="0"/>
-      <c r="N54" s="0"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
+      <c r="P54" s="0"/>
+      <c r="Q54" s="0"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
       <c r="A55" s="2" t="str">
@@ -7156,13 +7242,16 @@
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="M55" s="0"/>
-      <c r="N55" s="0"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="P55" s="0"/>
+      <c r="Q55" s="0"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
       <c r="A56" s="2" t="str">
@@ -7178,13 +7267,16 @@
         <v>8</v>
       </c>
       <c r="D56" s="8"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
       <c r="A57" s="2" t="str">
@@ -7197,13 +7289,16 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
       <c r="A58" s="2" t="str">
@@ -7214,15 +7309,27 @@
         <f aca="false">B12</f>
         <v>6</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
+      <c r="C58" s="8" t="n">
+        <f aca="false">B27</f>
+        <v>15</v>
+      </c>
+      <c r="D58" s="8" t="n">
+        <f aca="false">B28</f>
+        <v>16</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <f aca="false">B37</f>
+        <v>18</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
       <c r="A59" s="2" t="str">
@@ -7235,28 +7342,43 @@
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="20">
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="U4:Z4"/>
+    <mergeCell ref="AA4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AJ4:AN4"/>
+    <mergeCell ref="AO4:AR4"/>
+    <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D16:D20"/>
     <mergeCell ref="D21:D26"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="D45:D48"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:AV48"/>
+  <conditionalFormatting sqref="B6:B48"/>
+  <conditionalFormatting sqref="F2:AV2"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
